--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NORTH_CAROLINA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NORTH_CAROLINA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1601"/>
+  <dimension ref="A1:D1595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C32">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C36">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C44">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C49">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C71">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C76">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C86">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C124">
@@ -2128,7 +2128,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C134">
@@ -2380,7 +2380,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C153">
@@ -2541,7 +2541,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C169">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C183">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C196">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C200">
@@ -3084,7 +3084,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C206">
@@ -3214,12 +3214,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C216">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C219">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C220">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C227">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C237">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C243">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C249">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C262">
@@ -3947,7 +3947,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C272">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C275">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C285">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C296">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C301">
@@ -4337,7 +4337,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C302">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C303">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C304">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C317">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C318">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C319">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C327">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C331">
@@ -4823,7 +4823,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C339">
@@ -4875,7 +4875,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C343">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C345">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C347">
@@ -4940,7 +4940,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C348">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C349">
@@ -5018,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C354">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C360">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C364">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C368">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C371">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C375">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C376">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C380">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C381">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C386">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C392">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C393">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C395">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C396">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C398">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C401">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C414">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C416">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C418">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C420">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C423">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C424">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C436">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C442">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C443">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C447">
@@ -6270,13 +6270,13 @@
         <v>21</v>
       </c>
       <c r="D449">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C450">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C453">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C456">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C464">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C465">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C468">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C471">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C478">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C482">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C484">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C485">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C488">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C497">
@@ -6926,7 +6926,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C500">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C501">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C505">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C509">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C516">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C523">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C529">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C530">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C533">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C537">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C540">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C546">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C550">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C553">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C558">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C562">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C567">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C569">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C574">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C575">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C578">
@@ -8249,7 +8249,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C601">
@@ -8594,7 +8594,7 @@
         <v>21</v>
       </c>
       <c r="D627">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="628">
@@ -9055,7 +9055,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C663">
@@ -9372,7 +9372,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C687">
@@ -9463,7 +9463,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C694">
@@ -9515,7 +9515,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C698">
@@ -9593,7 +9593,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C704">
@@ -9606,7 +9606,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C705">
@@ -9697,7 +9697,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C712">
@@ -9754,7 +9754,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C716">
@@ -9767,7 +9767,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C717">
@@ -9793,7 +9793,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C719">
@@ -9884,7 +9884,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C726">
@@ -10162,7 +10162,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C747">
@@ -10188,7 +10188,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C749">
@@ -10253,7 +10253,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C754">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C759">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C766">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C769">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C773">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C776">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C778">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C779">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C780">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C781">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C782">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C783">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C784">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C791">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C794">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C800">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C802">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C812">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C822">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C825">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C827">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C838">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C844">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C886">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C887">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C900">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C903">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C928">
@@ -12663,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C939">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C943">
@@ -12793,7 +12793,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C949">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C959">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1012">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1027">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1028">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1029">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1030">
@@ -13859,7 +13859,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1031">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1032">
@@ -13885,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1033">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1034">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1036">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1037">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1038">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1039">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1040">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1044">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1046">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1048">
@@ -14280,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1063">
@@ -14306,7 +14306,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1065">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1081">
@@ -14553,7 +14553,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1084">
@@ -14566,7 +14566,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1085">
@@ -14683,7 +14683,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1094">
@@ -14696,7 +14696,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1095">
@@ -14748,7 +14748,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1099">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1101">
@@ -14800,7 +14800,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1103">
@@ -14917,7 +14917,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1112">
@@ -14995,7 +14995,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1118">
@@ -15229,7 +15229,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1136">
@@ -15242,7 +15242,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1137">
@@ -15307,7 +15307,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1142">
@@ -15398,7 +15398,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1149">
@@ -15411,7 +15411,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1150">
@@ -15476,7 +15476,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1155">
@@ -15502,7 +15502,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1157">
@@ -15515,7 +15515,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1158">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1159">
@@ -15593,7 +15593,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1164">
@@ -15723,7 +15723,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1174">
@@ -15749,7 +15749,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1176">
@@ -16027,14 +16027,14 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1197">
         <v>21</v>
       </c>
       <c r="D1197">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="1198">
@@ -16053,7 +16053,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1199">
@@ -16131,7 +16131,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1205">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1206">
@@ -16183,7 +16183,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1209">
@@ -16222,7 +16222,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1212">
@@ -16375,7 +16375,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1223">
@@ -16453,7 +16453,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1229">
@@ -16570,7 +16570,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1238">
@@ -16635,7 +16635,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1243">
@@ -16700,7 +16700,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1248">
@@ -16726,7 +16726,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1250">
@@ -16759,7 +16759,7 @@
         <v>21</v>
       </c>
       <c r="D1252">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="1253">
@@ -16856,7 +16856,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1260">
@@ -16869,7 +16869,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1261">
@@ -16882,7 +16882,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1262">
@@ -16895,7 +16895,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1263">
@@ -16908,7 +16908,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1264">
@@ -17482,7 +17482,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1307">
@@ -17916,7 +17916,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1340">
@@ -18142,7 +18142,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1357">
@@ -18181,7 +18181,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1360">
@@ -18220,7 +18220,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1363">
@@ -18259,7 +18259,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1366">
@@ -18427,7 +18427,7 @@
         <v>21</v>
       </c>
       <c r="D1378">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="1379">
@@ -18440,7 +18440,7 @@
         <v>21</v>
       </c>
       <c r="D1379">
-        <v>0.0009340390517279723</v>
+        <v>0.0009340390517279724</v>
       </c>
     </row>
     <row r="1380">
@@ -18485,7 +18485,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1383">
@@ -18537,7 +18537,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1387">
@@ -18628,7 +18628,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1394">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1399">
@@ -18719,7 +18719,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1401">
@@ -18966,7 +18966,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1420">
@@ -18979,7 +18979,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1421">
@@ -19187,7 +19187,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1437">
@@ -19200,7 +19200,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1438">
@@ -19252,7 +19252,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1442">
@@ -19265,7 +19265,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1443">
@@ -19278,7 +19278,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1444">
@@ -19395,7 +19395,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1453">
@@ -19434,7 +19434,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1456">
@@ -19447,7 +19447,7 @@
     <row r="1457">
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1457">
@@ -19499,7 +19499,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1461">
@@ -19525,7 +19525,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1463">
@@ -19577,7 +19577,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1467">
@@ -19694,7 +19694,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1476">
@@ -19746,7 +19746,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1480">
@@ -19759,7 +19759,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1481">
@@ -19798,7 +19798,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1484">
@@ -19902,7 +19902,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1492">
@@ -19941,7 +19941,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1495">
@@ -20006,7 +20006,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1500">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1530">
@@ -20526,7 +20526,7 @@
     <row r="1540">
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1540">
@@ -20757,7 +20757,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1557">
@@ -20861,7 +20861,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1565">
@@ -20965,7 +20965,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1573">
@@ -20978,7 +20978,7 @@
     <row r="1574">
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1574">
@@ -21095,7 +21095,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1583">
@@ -21108,7 +21108,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1584">
@@ -21160,7 +21160,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1588">
@@ -21259,41 +21259,6 @@
       </c>
       <c r="D1595">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
